--- a/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB8F00B-11F4-4FB1-97B1-DA61CD54AF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F3062-99C4-4CFC-B013-A71B4FCD6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク｛承認完了一覧｝" sheetId="3" r:id="rId1"/>
@@ -103,15 +103,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>455213</xdr:colOff>
+      <xdr:colOff>488343</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>219986</xdr:rowOff>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>424733</xdr:colOff>
+      <xdr:colOff>457863</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>21866</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -126,8 +126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="455213" y="219986"/>
-          <a:ext cx="6675120" cy="3916680"/>
+          <a:off x="488343" y="213360"/>
+          <a:ext cx="6661868" cy="3976315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,15 +595,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>662607</xdr:colOff>
+      <xdr:colOff>649354</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>106017</xdr:rowOff>
+      <xdr:rowOff>112643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>596347</xdr:colOff>
+      <xdr:colOff>583094</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>119270</xdr:rowOff>
+      <xdr:rowOff>125896</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -618,7 +618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2001077" y="1033669"/>
+          <a:off x="1987824" y="1040295"/>
           <a:ext cx="6626087" cy="477079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -649,14 +649,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>名称　　　　申請者　　　　申請日時　　　　</a:t>
+            <a:t>名称　　　　　申請者　　　　　申請日時　　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" cap="all">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -666,13 +673,12 @@
             <a:t>完了日時　　　　</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>ステータス　　　　</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>ACTIONS</a:t>
@@ -853,7 +859,9 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -934,7 +942,9 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -949,7 +959,9 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -1028,7 +1040,9 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -1043,7 +1057,9 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -1122,7 +1138,9 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -1137,7 +1155,9 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -1216,7 +1236,9 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -1308,6 +1330,89 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>382327</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>322692</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F2E9DF-1D0C-4B04-9537-FF1A492DF760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5736205" y="1406056"/>
+          <a:ext cx="609600" cy="477079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" u="sng">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1316,15 +1421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>455213</xdr:colOff>
+      <xdr:colOff>448586</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>219986</xdr:rowOff>
+      <xdr:rowOff>219987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>424733</xdr:colOff>
+      <xdr:colOff>418106</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>21866</xdr:rowOff>
+      <xdr:rowOff>21867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1339,7 +1444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="455213" y="219986"/>
+          <a:off x="448586" y="219987"/>
           <a:ext cx="6661868" cy="3976315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1808,92 +1913,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>86139</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>377686</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9155C6AE-3631-8BB1-7CE1-1D13B39A31E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2140226" y="1013791"/>
-          <a:ext cx="4929808" cy="477079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>名称　　　　申請者　　　　申請日時　　　　ステータ　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>ACTIONS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>　　　　詳細　　</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>13252</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>185530</xdr:rowOff>
@@ -2055,7 +2074,9 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2136,7 +2157,9 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2151,7 +2174,9 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2230,7 +2255,9 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2245,7 +2272,9 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2324,7 +2353,9 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2339,7 +2370,9 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2418,7 +2451,9 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -2512,16 +2547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510209</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>231912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>318052</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19878</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>258417</xdr:colOff>
+      <xdr:colOff>450574</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:rowOff>13252</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2536,7 +2571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6341165" y="1411356"/>
+          <a:off x="5864087" y="1391477"/>
           <a:ext cx="609600" cy="477079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2569,9 +2604,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>詳細　　</a:t>
+            <a:t>詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>　　</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" u="sng">
             <a:effectLst/>
@@ -2579,6 +2623,171 @@
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>660621</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594361</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892C2E60-CE52-4B50-BE6B-AFA292BBB8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1999091" y="1048249"/>
+          <a:ext cx="6626087" cy="477079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>名称　　　　　申請者　　　　　申請日時　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" cap="all">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステータス　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ACTIONS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>231912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39757</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61837138-A407-1270-6E77-D8286F71C4FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1391477"/>
+          <a:ext cx="516835" cy="258419"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>申請中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2886,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F3980-D6A0-44DA-8B22-FE493BE68893}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2903,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3643BE0-3263-4316-8F3E-4619913DE9A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F3062-99C4-4CFC-B013-A71B4FCD6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9386A-DF1A-47DC-99B1-0E68EDA263BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク｛承認完了一覧｝" sheetId="3" r:id="rId1"/>
@@ -103,15 +103,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>488343</xdr:colOff>
+      <xdr:colOff>448587</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>219986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457863</xdr:colOff>
+      <xdr:colOff>418107</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>21866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -126,7 +126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="488343" y="213360"/>
+          <a:off x="448587" y="219986"/>
           <a:ext cx="6661868" cy="3976315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1322,7 +1322,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>承認待ちタスク一覧</a:t>
+            <a:t>承認完了タスク一覧</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3095,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F3980-D6A0-44DA-8B22-FE493BE68893}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3112,7 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3643BE0-3263-4316-8F3E-4619913DE9A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9386A-DF1A-47DC-99B1-0E68EDA263BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319DC2A-2847-4882-95A9-D2B575BBFA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
-    <sheet name="タスク｛承認完了一覧｝" sheetId="3" r:id="rId1"/>
-    <sheet name="タスク｛承認待ち一覧｝" sheetId="1" r:id="rId2"/>
+    <sheet name="タスク｛承認待ち一覧｝" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,1324 +102,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>448587</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>219986</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>418107</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>21866</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1187783C-63C4-43DE-8DCD-F03C48157266}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="448587" y="219986"/>
-          <a:ext cx="6661868" cy="3976315"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5C63A2-1EE1-4A4B-A728-27A3C223C84B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="449580" y="220980"/>
-          <a:ext cx="1386840" cy="3909060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>写真</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3292412F-E3E5-4DAF-BBE0-D7CE58DA5A4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="449580" y="1516380"/>
-          <a:ext cx="1386840" cy="327660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>個人情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2620B17C-2F7A-448D-BB10-86C17E8F0B68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="449580" y="1844040"/>
-          <a:ext cx="1386840" cy="327660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>資格証登録</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>115294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>214354</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54975EF-33EE-4309-9D36-1D616F020C8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="449580" y="2172694"/>
-          <a:ext cx="1386840" cy="327660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>承認待ち一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>442953</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>207728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488673</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>74874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4472DFE-4135-4056-88F4-0D5C360AEE81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="442953" y="2493728"/>
-          <a:ext cx="1386840" cy="324346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>承認完了一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>198782</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928F65ED-5B43-451B-A791-BE3F5F7648D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2011680" y="980661"/>
-          <a:ext cx="4892702" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>649354</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>112643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>583094</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>125896</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB04B617-04FB-42B6-8661-E944DACBA1A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1987824" y="1040295"/>
-          <a:ext cx="6626087" cy="477079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>名称　　　　　申請者　　　　　申請日時　　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" cap="all">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>完了日時　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>ACTIONS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13252</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>185530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>212034</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>185530</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCB0DCB-C897-4B7F-A62A-43BA58F0EBAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2024932" y="1328530"/>
-          <a:ext cx="4892702" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>26505</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>225286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>225287</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>225286</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455E9C87-28E7-498C-8CBD-BCFEA8BE712C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2038185" y="2511286"/>
-          <a:ext cx="4892702" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>337931</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>218660</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37C7354-0C10-48E7-8CF1-E8F6F016E952}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2011681" y="2627244"/>
-          <a:ext cx="337930" cy="334616"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>≪</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>437321</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119270</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>106016</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>225286</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="楕円 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5689D0C-3B60-4C00-BC27-C71608F18367}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2449001" y="2633870"/>
-          <a:ext cx="339255" cy="334616"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>212035</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>549965</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46089816-8DA0-4E7F-AEA4-7FD79E60EF1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2894275" y="2647122"/>
-          <a:ext cx="337930" cy="331303"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>13252</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>125896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>351182</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>231912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="楕円 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76752722-2A7B-4C91-9FCA-A2043B6360B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3366052" y="2640496"/>
-          <a:ext cx="337930" cy="334616"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>&gt;</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>125896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>125895</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>231912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="楕円 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D103937-7BC6-42BB-9694-3FC20D799938}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3810000" y="2640496"/>
-          <a:ext cx="339255" cy="334616"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>≫</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>46383</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523461</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CF89F0-56DB-4CE5-AB9C-272D8DD1D170}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2058063" y="427383"/>
-          <a:ext cx="1818198" cy="337930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" cap="all">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>承認完了タスク一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>382327</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14578</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>322692</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>27831</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F2E9DF-1D0C-4B04-9537-FF1A492DF760}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5736205" y="1406056"/>
-          <a:ext cx="609600" cy="477079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>詳細</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="1" u="sng">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" u="sng"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>448586</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>219987</xdr:rowOff>
@@ -1776,7 +457,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>承認待ち一覧</a:t>
+            <a:t>タスク一覧</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1842,18 +523,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>承認完了一覧</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2537,7 +1206,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>承認待ちタスク一覧</a:t>
+            <a:t>タスク一覧</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2547,16 +1216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>510209</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>231912</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>384312</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>450574</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>324677</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
+      <xdr:rowOff>19878</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2571,7 +1240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5864087" y="1391477"/>
+          <a:off x="6407425" y="1398103"/>
           <a:ext cx="609600" cy="477079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2692,7 +1361,7 @@
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>名称　　　　　申請者　　　　　申請日時　　　　　</a:t>
+            <a:t>名称　　　　申請者　　　　申請日時　　　　完了日時　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="1" i="0" cap="all">
@@ -2733,14 +1402,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>192157</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>231912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>39757</xdr:colOff>
+      <xdr:colOff>583096</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>26505</xdr:rowOff>
     </xdr:to>
@@ -2757,7 +1426,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="1391477"/>
+          <a:off x="5420139" y="1391477"/>
           <a:ext cx="516835" cy="258419"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3092,27 +1761,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F3980-D6A0-44DA-8B22-FE493BE68893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3643BE0-3263-4316-8F3E-4619913DE9A5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3643BE0-3263-4316-8F3E-4619913DE9A5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：タスク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319DC2A-2847-4882-95A9-D2B575BBFA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8ED0DE-9DE8-4D67-A891-0D210F0B4E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -459,70 +459,6 @@
             </a:rPr>
             <a:t>タスク一覧</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>442953</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>207728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488673</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>74874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C785026-DA4A-4F0D-947A-D1BDBE5ACCB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="442953" y="2526858"/>
-          <a:ext cx="1384190" cy="330973"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1765,7 +1701,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
